--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78BC87-9DA6-42AC-8217-E792C52589F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E441FE7F-342A-483C-8C24-461710EAE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
+    <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Linking station names" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="229">
   <si>
     <t>Acht</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>Station name</t>
+  </si>
+  <si>
+    <t>Botlek Tunnel</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23A643-29F4-469D-948F-B38812878EAE}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,43 +1284,43 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>_xlfn.XLOOKUP(B16,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bottrop, Duitsland</v>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>_xlfn.XLOOKUP(B17,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
+        <v>Bottrop, Duitsland</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>_xlfn.XLOOKUP(B18,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Saxion Deventer Ophaalpunt</v>
+        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>23</v>
@@ -1329,43 +1332,43 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>_xlfn.XLOOKUP(B20,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dokweg, 3316 AD Dordrecht</v>
+        <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>_xlfn.XLOOKUP(B21,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
+        <v>Dokweg, 3316 AD Dordrecht</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>_xlfn.XLOOKUP(B22,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>47055 Duisburg, Duitsland</v>
+        <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>31</v>
@@ -1377,19 +1380,19 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>_xlfn.XLOOKUP(B24,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
+        <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -1401,19 +1404,19 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="str">
         <f>_xlfn.XLOOKUP(B26,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>63</v>
@@ -1425,31 +1428,31 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3" t="str">
         <f>_xlfn.XLOOKUP(B28,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Eltville Ost, Duitsland</v>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="str">
         <f>_xlfn.XLOOKUP(B29,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
+        <v>Eltville Ost, Duitsland</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>37</v>
@@ -1461,127 +1464,127 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="str">
         <f>_xlfn.XLOOKUP(B31,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
+        <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C32" s="3" t="str">
         <f>_xlfn.XLOOKUP(B32,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Piri Reisweg, Sevenum</v>
+        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="str">
         <f>_xlfn.XLOOKUP(B33,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Germersheim, Duitsland</v>
+        <v>Piri Reisweg, Sevenum</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="str">
         <f>_xlfn.XLOOKUP(B34,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationspark 14, 4461 HK Goes</v>
+        <v>Germersheim, Duitsland</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="str">
         <f>_xlfn.XLOOKUP(B35,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <v>Stationspark 14, 4461 HK Goes</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="str">
         <f>_xlfn.XLOOKUP(B36,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="str">
         <f>_xlfn.XLOOKUP(B37,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dortmuiden 5152, Amsterdam</v>
+        <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3" t="str">
         <f>_xlfn.XLOOKUP(B38,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Aristotelesstraat, 3076 BD Rotterdam</v>
+        <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>_xlfn.XLOOKUP(B39,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
+        <v>Aristotelesstraat, 3076 BD Rotterdam</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3" t="str">
         <f>_xlfn.XLOOKUP(B40,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Develsingel, Zwijndrecht</v>
+        <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -1593,67 +1596,67 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3" t="str">
         <f>_xlfn.XLOOKUP(B42,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C43" s="3" t="str">
         <f>_xlfn.XLOOKUP(B43,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="3" t="str">
         <f>_xlfn.XLOOKUP(B44,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
+        <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="str">
         <f>_xlfn.XLOOKUP(B45,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Oggersheim, Ludwigshafen, Duitsland</v>
+        <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="str">
         <f>_xlfn.XLOOKUP(B46,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <v>Oggersheim, Ludwigshafen, Duitsland</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>63</v>
@@ -1665,7 +1668,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>63</v>
@@ -1677,7 +1680,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>63</v>
@@ -1689,7 +1692,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>63</v>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>63</v>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>63</v>
@@ -1725,7 +1728,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>63</v>
@@ -1737,43 +1740,43 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C54" s="3" t="str">
         <f>_xlfn.XLOOKUP(B54,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="3" t="str">
         <f>_xlfn.XLOOKUP(B55,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Streefwaalseweg 15, 3195 KN Pernis</v>
+        <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C56" s="3" t="str">
         <f>_xlfn.XLOOKUP(B56,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moers, Bahnhof, Moers, Duitsland</v>
+        <v>Streefwaalseweg 15, 3195 KN Pernis</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>108</v>
@@ -1785,55 +1788,55 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C58" s="3" t="str">
         <f>_xlfn.XLOOKUP(B58,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
+        <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="str">
         <f>_xlfn.XLOOKUP(B59,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
+        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C60" s="3" t="str">
         <f>_xlfn.XLOOKUP(B60,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
+        <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>75</v>
+        <v>113</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C61" s="3" t="str">
         <f>_xlfn.XLOOKUP(B61,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat, 7573 AT Oldenzaal</v>
+        <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>75</v>
@@ -1845,199 +1848,199 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C63" s="3" t="str">
         <f>_xlfn.XLOOKUP(B63,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Waalkade 33, 5347 KS Oss</v>
+        <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C64" s="3" t="str">
         <f>_xlfn.XLOOKUP(B64,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Opladen, Duitsland</v>
+        <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C65" s="3" t="str">
         <f>_xlfn.XLOOKUP(B65,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Waalkade 33, 5347 KS Oss</v>
+        <v>Opladen, Duitsland</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3" t="str">
         <f>_xlfn.XLOOKUP(B66,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
+        <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C67" s="3" t="str">
         <f>_xlfn.XLOOKUP(B67,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Fuutlaan, 5642 CV Eindhoven</v>
+        <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C68" s="3" t="str">
         <f>_xlfn.XLOOKUP(B68,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <v>Fuutlaan, 5642 CV Eindhoven</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="str">
         <f>_xlfn.XLOOKUP(B69,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Rheine, Duitsland</v>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C70" s="3" t="str">
         <f>_xlfn.XLOOKUP(B70,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
+        <v>Rheine, Duitsland</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="3" t="str">
         <f>_xlfn.XLOOKUP(B71,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bosstraat 3, 4704 RL Roosendaal</v>
+        <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C72" s="3" t="str">
         <f>_xlfn.XLOOKUP(B72,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <v>Bosstraat 3, 4704 RL Roosendaal</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C73" s="3" t="str">
         <f>_xlfn.XLOOKUP(B73,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>4455 ST Nieuwdorp</v>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="3" t="str">
         <f>_xlfn.XLOOKUP(B74,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Corsicaweg 343, 1044 AB Amsterdam</v>
+        <v>4455 ST Nieuwdorp</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="3" t="str">
         <f>_xlfn.XLOOKUP(B75,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Houtbeekweg 2, 3776 LZ Stroe</v>
+        <v>Corsicaweg 343, 1044 AB Amsterdam</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C76" s="3" t="str">
         <f>_xlfn.XLOOKUP(B76,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <v>Houtbeekweg 2, 3776 LZ Stroe</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C77" s="3" t="str">
         <f>_xlfn.XLOOKUP(B77,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Uitgeest</v>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C78" s="3" t="str">
         <f>_xlfn.XLOOKUP(B78,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <v>Uitgeest</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>97</v>
@@ -2049,31 +2052,31 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C80" s="3" t="str">
         <f>_xlfn.XLOOKUP(B80,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dammweg, 41747 Viersen, Duitsland</v>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3" t="str">
         <f>_xlfn.XLOOKUP(B81,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <v>Dammweg, 41747 Viersen, Duitsland</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>19</v>
@@ -2085,49 +2088,61 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C83" s="3" t="str">
         <f>_xlfn.XLOOKUP(B83,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C84" s="3" t="str">
         <f>_xlfn.XLOOKUP(B84,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
+        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C85" s="3" t="str">
         <f>_xlfn.XLOOKUP(B85,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
+        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>109</v>
+        <v>138</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C86" s="3" t="str">
         <f>_xlfn.XLOOKUP(B86,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f>_xlfn.XLOOKUP(B87,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Overweg, 7202 AB Zutphen</v>
       </c>
     </row>
@@ -2140,7 +2155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D40E918-4E91-4C95-B234-1F9922AFEF3D}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E441FE7F-342A-483C-8C24-461710EAE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797A8AA-14F2-4FE9-94D7-8B8C05A45A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Linking station names" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="236">
   <si>
     <t>Acht</t>
   </si>
@@ -723,6 +723,27 @@
   </si>
   <si>
     <t>Botlek Tunnel</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Europaweg 910, 3199 LC Maasvlakte Rotterdam</t>
+  </si>
+  <si>
+    <t>ECT</t>
+  </si>
+  <si>
+    <t>Coloradoweg 3199, Maasvlakte Rotterdam</t>
+  </si>
+  <si>
+    <t>3199, Maasvlakte Rotterdam</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1115,7 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,7 +1143,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B2,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B2,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Achtseweg Zuid, Eindhoven</v>
       </c>
     </row>
@@ -1134,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B3,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B3,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7607 ET Almelo</v>
       </c>
     </row>
@@ -1146,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B4,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B4,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piet Mondriaanplein 59, 3818 GZ Amersfoort</v>
       </c>
     </row>
@@ -1158,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B5,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B5,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsplein, 1012 AB Amsterdam</v>
       </c>
     </row>
@@ -1170,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B6,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B6,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg, 1014 BD Amsterdam</v>
       </c>
     </row>
@@ -1182,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B7,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B7,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Hornweg 32, 1044 AN  Amsterdam</v>
       </c>
     </row>
@@ -1191,11 +1212,11 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B8,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(B8,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1206,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B9,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B9,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Funkenstiege 25, 48455 Bad Bentheim, Duitsland</v>
       </c>
     </row>
@@ -1218,7 +1239,7 @@
         <v>91</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B10,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B10,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
@@ -1230,7 +1251,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B11,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B11,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1242,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B12,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B12,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1254,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B13,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B13,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1266,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B14,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B14,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1278,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B15,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B15,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1290,7 +1311,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B16,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B16,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1302,7 +1323,7 @@
         <v>218</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B17,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B17,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bottrop, Duitsland</v>
       </c>
     </row>
@@ -1314,7 +1335,7 @@
         <v>69</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B18,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B18,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
@@ -1326,7 +1347,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B19,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B19,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
@@ -1338,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B20,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B20,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
@@ -1350,7 +1371,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B21,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B21,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dokweg, 3316 AD Dordrecht</v>
       </c>
     </row>
@@ -1362,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B22,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B22,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
       </c>
     </row>
@@ -1374,7 +1395,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B23,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B23,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1386,7 +1407,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B24,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B24,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1398,7 +1419,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B25,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B25,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1410,7 +1431,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B26,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B26,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1419,11 +1440,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B27,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(B27,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -1431,11 +1452,11 @@
         <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B28,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(B28,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1446,7 +1467,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B29,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B29,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Eltville Ost, Duitsland</v>
       </c>
     </row>
@@ -1458,7 +1479,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B30,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B30,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
@@ -1470,7 +1491,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B31,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B31,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
@@ -1482,7 +1503,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B32,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B32,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1494,7 +1515,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B33,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B33,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piri Reisweg, Sevenum</v>
       </c>
     </row>
@@ -1506,7 +1527,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B34,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B34,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Germersheim, Duitsland</v>
       </c>
     </row>
@@ -1518,7 +1539,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B35,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B35,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationspark 14, 4461 HK Goes</v>
       </c>
     </row>
@@ -1530,7 +1551,7 @@
         <v>97</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B36,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B36,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
@@ -1542,7 +1563,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B37,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B37,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
       </c>
     </row>
@@ -1554,7 +1575,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B38,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B38,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
@@ -1566,7 +1587,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B39,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B39,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Aristotelesstraat, 3076 BD Rotterdam</v>
       </c>
     </row>
@@ -1578,7 +1599,7 @@
         <v>51</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B40,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B40,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
       </c>
     </row>
@@ -1590,7 +1611,7 @@
         <v>53</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B41,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B41,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
@@ -1602,7 +1623,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B42,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B42,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
@@ -1614,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B43,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B43,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1626,7 +1647,7 @@
         <v>82</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B44,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B44,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
       </c>
     </row>
@@ -1638,7 +1659,7 @@
         <v>59</v>
       </c>
       <c r="C45" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B45,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B45,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
       </c>
     </row>
@@ -1650,7 +1671,7 @@
         <v>86</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B46,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B46,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Oggersheim, Ludwigshafen, Duitsland</v>
       </c>
     </row>
@@ -1662,7 +1683,7 @@
         <v>63</v>
       </c>
       <c r="C47" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B47,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B47,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1674,7 +1695,7 @@
         <v>63</v>
       </c>
       <c r="C48" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B48,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B48,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1683,11 +1704,11 @@
         <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B49,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(B49,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1695,11 +1716,11 @@
         <v>94</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C50" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B50,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(B50,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1710,7 +1731,7 @@
         <v>63</v>
       </c>
       <c r="C51" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B51,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B51,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1722,7 +1743,7 @@
         <v>63</v>
       </c>
       <c r="C52" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B52,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B52,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1734,7 +1755,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B53,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B53,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1743,11 +1764,11 @@
         <v>102</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C54" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B54,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(B54,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1758,7 +1779,7 @@
         <v>104</v>
       </c>
       <c r="C55" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B55,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B55,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
       </c>
     </row>
@@ -1770,7 +1791,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B56,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B56,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Streefwaalseweg 15, 3195 KN Pernis</v>
       </c>
     </row>
@@ -1782,7 +1803,7 @@
         <v>108</v>
       </c>
       <c r="C57" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B57,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B57,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
@@ -1794,7 +1815,7 @@
         <v>108</v>
       </c>
       <c r="C58" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B58,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B58,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
@@ -1806,7 +1827,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B59,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B59,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
@@ -1818,7 +1839,7 @@
         <v>140</v>
       </c>
       <c r="C60" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B60,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B60,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
       </c>
     </row>
@@ -1830,7 +1851,7 @@
         <v>113</v>
       </c>
       <c r="C61" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B61,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B61,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
       </c>
     </row>
@@ -1842,7 +1863,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B62,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B62,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
@@ -1854,7 +1875,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B63,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B63,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
@@ -1866,7 +1887,7 @@
         <v>81</v>
       </c>
       <c r="C64" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B64,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B64,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
@@ -1878,7 +1899,7 @@
         <v>117</v>
       </c>
       <c r="C65" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B65,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B65,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Opladen, Duitsland</v>
       </c>
     </row>
@@ -1890,7 +1911,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B66,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B66,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
@@ -1902,7 +1923,7 @@
         <v>83</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B67,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B67,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
       </c>
     </row>
@@ -1914,7 +1935,7 @@
         <v>33</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B68,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B68,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Fuutlaan, 5642 CV Eindhoven</v>
       </c>
     </row>
@@ -1926,7 +1947,7 @@
         <v>91</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B69,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B69,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
@@ -1938,7 +1959,7 @@
         <v>122</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B70,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B70,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Rheine, Duitsland</v>
       </c>
     </row>
@@ -1950,7 +1971,7 @@
         <v>85</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B71,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B71,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1962,7 +1983,7 @@
         <v>87</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B72,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B72,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bosstraat 3, 4704 RL Roosendaal</v>
       </c>
     </row>
@@ -1971,11 +1992,11 @@
         <v>125</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B73,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(B73,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1986,7 +2007,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B74,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B74,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>4455 ST Nieuwdorp</v>
       </c>
     </row>
@@ -1998,7 +2019,7 @@
         <v>127</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B75,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B75,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Corsicaweg 343, 1044 AB Amsterdam</v>
       </c>
     </row>
@@ -2010,7 +2031,7 @@
         <v>128</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B76,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B76,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Houtbeekweg 2, 3776 LZ Stroe</v>
       </c>
     </row>
@@ -2022,7 +2043,7 @@
         <v>91</v>
       </c>
       <c r="C77" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B77,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B77,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
@@ -2034,7 +2055,7 @@
         <v>93</v>
       </c>
       <c r="C78" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B78,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B78,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Uitgeest</v>
       </c>
     </row>
@@ -2046,7 +2067,7 @@
         <v>97</v>
       </c>
       <c r="C79" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B79,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B79,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
@@ -2058,7 +2079,7 @@
         <v>97</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B80,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B80,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
@@ -2070,7 +2091,7 @@
         <v>99</v>
       </c>
       <c r="C81" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B81,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B81,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dammweg, 41747 Viersen, Duitsland</v>
       </c>
     </row>
@@ -2082,7 +2103,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B82,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B82,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -2094,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B83,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B83,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -2106,7 +2127,7 @@
         <v>136</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B84,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B84,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
       </c>
     </row>
@@ -2118,7 +2139,7 @@
         <v>103</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B85,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B85,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
       </c>
     </row>
@@ -2130,7 +2151,7 @@
         <v>138</v>
       </c>
       <c r="C86" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B86,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B86,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat 14, 6901 BG Zevenaar</v>
       </c>
     </row>
@@ -2142,7 +2163,7 @@
         <v>109</v>
       </c>
       <c r="C87" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B87,'Station addresses'!$A$2:$A$1008,'Station addresses'!$B$2:$B$1008,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(B87,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Overweg, 7202 AB Zutphen</v>
       </c>
     </row>
@@ -2153,19 +2174,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D40E918-4E91-4C95-B234-1F9922AFEF3D}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="48.81640625" customWidth="1"/>
-    <col min="3" max="3" width="32.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
@@ -2173,687 +2195,974 @@
         <v>212</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>218</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>220</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>216</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>215</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>225</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="C35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="C36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="C38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="C39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="C40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="C41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="C42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="C43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>61</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="C46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>217</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="C48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>104</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>221</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="C50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="C51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="C52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>108</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>222</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>69</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="C54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>71</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="C55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>140</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="C56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>113</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="C57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>73</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="C58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>75</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="C59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>77</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="C60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="C61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>117</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>223</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>81</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="C63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="C64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>122</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="C65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>85</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="C66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>87</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>89</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="C70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="C72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>91</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="C73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>93</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="C74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>95</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="C75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>97</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="C76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>99</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="C77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>101</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="C78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>136</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="C79" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>103</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="C80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>105</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="C81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>107</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>138</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="C83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>109</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="2"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="2"/>
+      <c r="C84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797A8AA-14F2-4FE9-94D7-8B8C05A45A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61936A06-68FF-4C7F-9E15-031376FEE88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Linking station names" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="244">
   <si>
     <t>Acht</t>
   </si>
@@ -744,6 +744,30 @@
   </si>
   <si>
     <t>3199, Maasvlakte Rotterdam</t>
+  </si>
+  <si>
+    <t>Can switch drivers?</t>
+  </si>
+  <si>
+    <t>Krefeld Gbf</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Stuttgart Hbf</t>
+  </si>
+  <si>
+    <t>Stuttgart Hafen</t>
+  </si>
+  <si>
+    <t>Bietigheim-Bissingen</t>
+  </si>
+  <si>
+    <t>74321 Bietigheim-Bissingen, Germany</t>
   </si>
 </sst>
 </file>
@@ -787,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -798,6 +822,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,1058 +1139,1381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23A643-29F4-469D-948F-B38812878EAE}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="48.81640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="48.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21" style="3" customWidth="1"/>
+    <col min="3" max="4" width="48.81640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B2,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D2" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C2,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Achtseweg Zuid, Eindhoven</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B3,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="B3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C3,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7607 ET Almelo</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B4,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D4" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C4,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piet Mondriaanplein 59, 3818 GZ Amersfoort</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B5,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D5" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C5,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsplein, 1012 AB Amsterdam</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B6,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D6" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C6,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg, 1014 BD Amsterdam</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B7,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D7" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C7,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Hornweg 32, 1044 AN  Amsterdam</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B8,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D8" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C8,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B9,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D9" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C9,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Funkenstiege 25, 48455 Bad Bentheim, Duitsland</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B10,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D10" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C10,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B11,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D11" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C11,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B12,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D12" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C12,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B13,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D13" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C13,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C14,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>74321 Bietigheim-Bissingen, Germany</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B14,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D15" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C15,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B15,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D16" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C16,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B16,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D17" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C17,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B17,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D18" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C18,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bottrop, Duitsland</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B18,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D19" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C19,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B19,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D20" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C20,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B20,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D21" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C21,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B21,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D22" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C22,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dokweg, 3316 AD Dordrecht</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B22,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D23" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C23,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B23,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D24" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C24,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B24,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D25" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C25,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B25,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D26" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C26,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B26,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D27" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C27,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B27,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D28" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C28,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B28,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D29" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C29,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B29,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D30" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C30,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Eltville Ost, Duitsland</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B30,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D31" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C31,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B31,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D32" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C32,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B32,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D33" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C33,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B33,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D34" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C34,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piri Reisweg, Sevenum</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B34,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D35" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C35,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Germersheim, Duitsland</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B35,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D36" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C36,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationspark 14, 4461 HK Goes</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B36,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D37" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C37,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B37,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D38" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C38,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B38,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D39" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C39,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B39,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D40" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C40,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Aristotelesstraat, 3076 BD Rotterdam</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B40,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D41" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C41,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B41,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D42" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C42,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B42,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D43" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C43,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B43,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D44" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C44,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B44,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D45" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C45,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C46,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>47809 Krefeld, Duitsland</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B45,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D47" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C47,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B46,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D48" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C48,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Oggersheim, Ludwigshafen, Duitsland</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B47,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D49" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C49,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B48,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D50" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C50,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B49,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D51" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C51,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B50,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D52" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C52,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B53" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B51,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D53" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C53,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B52,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D54" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C54,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B53,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D55" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C55,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B54,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D56" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C56,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B55,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D57" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C57,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B58" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B56,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D58" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C58,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Streefwaalseweg 15, 3195 KN Pernis</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B57,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D59" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C59,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B58,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D60" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C60,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B61" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B59,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D61" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C61,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B60,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D62" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C62,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B63" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B61,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D63" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C63,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B64" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B62,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D64" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C64,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B63,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D65" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C65,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B66" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B64,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D66" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C66,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B67" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B65,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D67" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C67,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Opladen, Duitsland</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B68" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B66,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D68" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C68,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B69" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B67,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D69" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C69,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B70" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B68,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D70" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C70,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Fuutlaan, 5642 CV Eindhoven</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B71" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B69,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D71" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C71,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B72" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B70,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D72" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C72,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Rheine, Duitsland</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B71,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D73" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C73,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B74" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B72,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D74" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C74,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bosstraat 3, 4704 RL Roosendaal</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B75" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B73,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D75" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C75,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B76" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B74,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D76" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C76,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>4455 ST Nieuwdorp</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B77" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B75,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D77" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C77,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Corsicaweg 343, 1044 AB Amsterdam</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B78" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B76,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D78" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C78,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Houtbeekweg 2, 3776 LZ Stroe</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B79" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C79,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C80,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B81" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B77,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D81" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C81,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B82" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B78,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D82" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C82,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Uitgeest</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B83" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B79,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D83" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C83,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B80,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D84" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C84,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B85" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B81,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D85" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C85,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dammweg, 41747 Viersen, Duitsland</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B86" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B82,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D86" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C86,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B87" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B83,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D87" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C87,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B88" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B84,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D88" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C88,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B89" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B85,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D89" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C89,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B90" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B86,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D90" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C90,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat 14, 6901 BG Zevenaar</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B91" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="3" t="str">
-        <f>_xlfn.XLOOKUP(B87,'Station addresses'!$A$2:$A$1011,'Station addresses'!$B$2:$B$1011,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="D91" s="3" t="str">
+        <f>_xlfn.XLOOKUP(C91,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Overweg, 7202 AB Zutphen</v>
       </c>
     </row>
@@ -2174,10 +2524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D40E918-4E91-4C95-B234-1F9922AFEF3D}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2338,21 +2688,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="D14" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>230</v>
@@ -2360,10 +2713,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
         <v>230</v>
@@ -2371,35 +2724,35 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
         <v>230</v>
@@ -2407,10 +2760,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
         <v>230</v>
@@ -2418,10 +2771,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
         <v>230</v>
@@ -2429,21 +2782,21 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
         <v>231</v>
@@ -2451,10 +2804,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>231</v>
@@ -2462,35 +2815,35 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
         <v>230</v>
+      </c>
+      <c r="D26" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
         <v>230</v>
@@ -2498,46 +2851,46 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
         <v>231</v>
       </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
         <v>230</v>
@@ -2545,10 +2898,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
         <v>230</v>
@@ -2556,27 +2909,24 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
         <v>214</v>
@@ -2584,43 +2934,46 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
         <v>230</v>
+      </c>
+      <c r="D35" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>171</v>
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>172</v>
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C38" t="s">
         <v>230</v>
@@ -2628,10 +2981,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
         <v>230</v>
@@ -2639,76 +2992,76 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>177</v>
+        <v>55</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
         <v>230</v>
@@ -2716,71 +3069,71 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
-      </c>
-      <c r="D47" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="D48" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
         <v>231</v>
       </c>
+      <c r="D50" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>183</v>
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>184</v>
+        <v>106</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C52" t="s">
         <v>230</v>
@@ -2788,46 +3141,46 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
         <v>231</v>
       </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
         <v>230</v>
@@ -2835,10 +3188,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
         <v>230</v>
@@ -2846,32 +3199,32 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
         <v>230</v>
@@ -2879,10 +3232,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
         <v>230</v>
@@ -2890,211 +3243,214 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
-      </c>
-      <c r="D62" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="D63" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>83</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>194</v>
       </c>
-      <c r="C64" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="C65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>122</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>224</v>
-      </c>
-      <c r="C65" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" t="s">
-        <v>195</v>
       </c>
       <c r="C66" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>87</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>196</v>
       </c>
-      <c r="C67" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>125</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>235</v>
       </c>
-      <c r="C68" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>89</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>197</v>
       </c>
-      <c r="C69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="C70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>126</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>198</v>
       </c>
-      <c r="C70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>91</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>201</v>
       </c>
-      <c r="C73" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="C75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>93</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>130</v>
       </c>
-      <c r="C74" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="C76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>95</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>202</v>
       </c>
-      <c r="C75" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>97</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>203</v>
       </c>
-      <c r="C76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="C78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>99</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>204</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>101</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>205</v>
-      </c>
-      <c r="C78" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" t="s">
-        <v>206</v>
-      </c>
-      <c r="C79" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" t="s">
-        <v>207</v>
       </c>
       <c r="C80" t="s">
         <v>230</v>
@@ -3102,10 +3458,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
         <v>230</v>
@@ -3113,10 +3469,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C82" t="s">
         <v>230</v>
@@ -3124,10 +3480,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
         <v>230</v>
@@ -3135,34 +3491,56 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>109</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>211</v>
       </c>
-      <c r="C84" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61936A06-68FF-4C7F-9E15-031376FEE88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC0031F-06CB-4A56-BD52-00B65BC476B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
+    <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Linking station names" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="245">
   <si>
     <t>Acht</t>
   </si>
@@ -725,9 +725,6 @@
     <t>Botlek Tunnel</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -768,6 +765,12 @@
   </si>
   <si>
     <t>74321 Bietigheim-Bissingen, Germany</t>
+  </si>
+  <si>
+    <t>Netherlands, Germany</t>
+  </si>
+  <si>
+    <t>Country qualifications</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23A643-29F4-469D-948F-B38812878EAE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,7 +1161,7 @@
         <v>141</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>226</v>
@@ -1349,13 +1352,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D14" s="3" t="str">
         <f>_xlfn.XLOOKUP(C14,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1565,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="3" t="str">
         <f>_xlfn.XLOOKUP(C28,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1580,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>_xlfn.XLOOKUP(C29,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B46" s="6" t="b">
         <v>1</v>
@@ -2324,13 +2327,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B79" s="6" t="b">
         <v>1</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="3" t="str">
         <f>_xlfn.XLOOKUP(C79,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2339,13 +2342,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B80" s="6" t="b">
         <v>1</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="3" t="str">
         <f>_xlfn.XLOOKUP(C80,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2527,13 +2530,13 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="48.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
     <col min="4" max="4" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2545,7 +2548,7 @@
         <v>212</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>219</v>
@@ -2559,7 +2562,7 @@
         <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2570,7 +2573,7 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2581,7 +2584,7 @@
         <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2592,7 +2595,7 @@
         <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2603,7 +2606,7 @@
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2614,7 +2617,7 @@
         <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2625,7 +2628,7 @@
         <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2633,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
         <v>214</v>
@@ -2650,7 +2653,7 @@
         <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2661,7 +2664,7 @@
         <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2672,7 +2675,7 @@
         <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2683,18 +2686,18 @@
         <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" t="s">
         <v>242</v>
       </c>
-      <c r="B14" t="s">
-        <v>243</v>
-      </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
         <v>214</v>
@@ -2708,7 +2711,7 @@
         <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -2719,7 +2722,7 @@
         <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2730,7 +2733,7 @@
         <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2741,7 +2744,7 @@
         <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
         <v>214</v>
@@ -2755,7 +2758,7 @@
         <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2766,7 +2769,7 @@
         <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2777,7 +2780,7 @@
         <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2788,7 +2791,7 @@
         <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2799,7 +2802,7 @@
         <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2810,7 +2813,7 @@
         <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2821,18 +2824,18 @@
         <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" t="s">
         <v>233</v>
       </c>
-      <c r="B26" t="s">
-        <v>234</v>
-      </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
         <v>214</v>
@@ -2846,7 +2849,7 @@
         <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2857,7 +2860,7 @@
         <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2868,7 +2871,7 @@
         <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
         <v>214</v>
@@ -2882,7 +2885,7 @@
         <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2893,7 +2896,7 @@
         <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2904,7 +2907,7 @@
         <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -2915,7 +2918,7 @@
         <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2926,7 +2929,7 @@
         <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
         <v>214</v>
@@ -2940,7 +2943,7 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
         <v>214</v>
@@ -2954,7 +2957,7 @@
         <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2965,7 +2968,7 @@
         <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2976,7 +2979,7 @@
         <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2987,7 +2990,7 @@
         <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2998,7 +3001,7 @@
         <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -3009,7 +3012,7 @@
         <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -3020,7 +3023,7 @@
         <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -3031,7 +3034,7 @@
         <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -3042,7 +3045,7 @@
         <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -3053,7 +3056,7 @@
         <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -3064,7 +3067,7 @@
         <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -3075,7 +3078,7 @@
         <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -3086,7 +3089,7 @@
         <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
         <v>214</v>
@@ -3100,7 +3103,7 @@
         <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -3111,7 +3114,7 @@
         <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
         <v>214</v>
@@ -3125,7 +3128,7 @@
         <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -3136,7 +3139,7 @@
         <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -3147,7 +3150,7 @@
         <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -3158,7 +3161,7 @@
         <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D54" t="s">
         <v>214</v>
@@ -3172,7 +3175,7 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -3183,7 +3186,7 @@
         <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -3194,7 +3197,7 @@
         <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -3205,7 +3208,7 @@
         <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -3216,7 +3219,7 @@
         <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -3227,7 +3230,7 @@
         <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -3238,7 +3241,7 @@
         <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -3249,7 +3252,7 @@
         <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -3260,7 +3263,7 @@
         <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D63" t="s">
         <v>214</v>
@@ -3274,7 +3277,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -3285,7 +3288,7 @@
         <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -3296,7 +3299,7 @@
         <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -3307,7 +3310,7 @@
         <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -3318,7 +3321,7 @@
         <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -3326,10 +3329,10 @@
         <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -3340,7 +3343,7 @@
         <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -3351,7 +3354,7 @@
         <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -3362,7 +3365,7 @@
         <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -3373,18 +3376,18 @@
         <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
         <v>214</v>
@@ -3398,7 +3401,7 @@
         <v>201</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -3409,7 +3412,7 @@
         <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -3420,7 +3423,7 @@
         <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -3431,7 +3434,7 @@
         <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -3442,7 +3445,7 @@
         <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -3453,7 +3456,7 @@
         <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -3464,7 +3467,7 @@
         <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -3475,7 +3478,7 @@
         <v>207</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -3486,7 +3489,7 @@
         <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -3497,7 +3500,7 @@
         <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -3508,7 +3511,7 @@
         <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -3519,7 +3522,7 @@
         <v>211</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">

--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC0031F-06CB-4A56-BD52-00B65BC476B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0252226-E11E-4D01-8F67-3122337571C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="245">
   <si>
     <t>Acht</t>
   </si>
@@ -743,9 +743,6 @@
     <t>3199, Maasvlakte Rotterdam</t>
   </si>
   <si>
-    <t>Can switch drivers?</t>
-  </si>
-  <si>
     <t>Krefeld Gbf</t>
   </si>
   <si>
@@ -767,10 +764,13 @@
     <t>74321 Bietigheim-Bissingen, Germany</t>
   </si>
   <si>
-    <t>Netherlands, Germany</t>
-  </si>
-  <si>
-    <t>Country qualifications</t>
+    <t>Is border?</t>
+  </si>
+  <si>
+    <t>Is in border region?</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -1142,1381 +1142,1655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23A643-29F4-469D-948F-B38812878EAE}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21" style="3" customWidth="1"/>
-    <col min="3" max="4" width="48.81640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="13.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="48.81640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C2,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E2" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D2,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Achtseweg Zuid, Eindhoven</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C3,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E3" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D3,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7607 ET Almelo</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C4,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E4" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D4,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piet Mondriaanplein 59, 3818 GZ Amersfoort</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C5,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E5" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D5,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsplein, 1012 AB Amsterdam</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C6,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E6" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D6,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg, 1014 BD Amsterdam</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C7,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E7" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D7,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Hornweg 32, 1044 AN  Amsterdam</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C8,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E8" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D8,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C9,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E9" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D9,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Funkenstiege 25, 48455 Bad Bentheim, Duitsland</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C10,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E10" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D10,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C11,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E11" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D11,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C12,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E12" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D12,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C13,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E13" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D13,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C14,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D14,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>74321 Bietigheim-Bissingen, Germany</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C15,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E15" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D15,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C16,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E16" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D16,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C17,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E17" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D17,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C18,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E18" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D18,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bottrop, Duitsland</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C19,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E19" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D19,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C20,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E20" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D20,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C21,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E21" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D21,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C22,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E22" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D22,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dokweg, 3316 AD Dordrecht</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C23,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E23" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D23,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C24,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E24" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D24,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C25,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E25" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D25,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C26,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E26" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D26,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C27,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E27" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D27,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C28,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E28" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D28,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C29,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E29" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D29,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C30,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E30" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D30,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Eltville Ost, Duitsland</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C31,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E31" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D31,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C32,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E32" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D32,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C33,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E33" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D33,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C34,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E34" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D34,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piri Reisweg, Sevenum</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C35,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E35" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D35,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Germersheim, Duitsland</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C36,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E36" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D36,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationspark 14, 4461 HK Goes</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C37,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E37" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D37,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C38,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E38" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D38,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C39,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E39" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D39,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C40,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E40" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D40,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Aristotelesstraat, 3076 BD Rotterdam</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C41,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E41" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D41,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B42" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C42,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E42" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D42,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C43,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E43" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D43,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C44,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E44" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D44,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B45" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C45,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E45" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D45,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B46" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C46,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E46" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D46,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47809 Krefeld, Duitsland</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C47,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E47" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D47,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B48" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C48,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E48" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D48,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Oggersheim, Ludwigshafen, Duitsland</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C49,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E49" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D49,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B50" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C50,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E50" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D50,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B51" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C51,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E51" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D51,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C52,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E52" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D52,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B53" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C53,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E53" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D53,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B54" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C54,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E54" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D54,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B55" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C55,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E55" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D55,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C56,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E56" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D56,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C57,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E57" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D57,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C58,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E58" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D58,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Streefwaalseweg 15, 3195 KN Pernis</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B59" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C59,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E59" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D59,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B60" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C60,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E60" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D60,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C61,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E61" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D61,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B62" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C62,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E62" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D62,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B63" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C63,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E63" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D63,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C64,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E64" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D64,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B65" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C65,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E65" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D65,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B66" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C66,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E66" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D66,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B67" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C67,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E67" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D67,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Opladen, Duitsland</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B68" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C68,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E68" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D68,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B69" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C69,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E69" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D69,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B70" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C70,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E70" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D70,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Fuutlaan, 5642 CV Eindhoven</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B71" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C71,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E71" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D71,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B72" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C72,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E72" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D72,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Rheine, Duitsland</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C73,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E73" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D73,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B74" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C74,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E74" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D74,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bosstraat 3, 4704 RL Roosendaal</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B75" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C75,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E75" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D75,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B76" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C76,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E76" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D76,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>4455 ST Nieuwdorp</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B77" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C77,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E77" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D77,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Corsicaweg 343, 1044 AB Amsterdam</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B78" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C78,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E78" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D78,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Houtbeekweg 2, 3776 LZ Stroe</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C79,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E79" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D79,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B80" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D80" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C80,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D80,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B81" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C81,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E81" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D81,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B82" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C82,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E82" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D82,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Uitgeest</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C83,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E83" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D83,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B84" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D84" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C84,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E84" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D84,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B85" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C85,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E85" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D85,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dammweg, 41747 Viersen, Duitsland</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B86" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C86,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E86" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D86,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B87" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C87,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E87" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D87,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B88" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C88,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E88" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D88,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C89,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E89" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D89,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B90" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D90" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C90,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E90" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D90,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat 14, 6901 BG Zevenaar</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B91" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="3" t="str">
-        <f>_xlfn.XLOOKUP(C91,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E91" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D91,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Overweg, 7202 AB Zutphen</v>
       </c>
     </row>
@@ -2530,13 +2804,13 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="48.81640625" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
     <col min="4" max="4" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2664,7 +2938,7 @@
         <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2675,7 +2949,7 @@
         <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2691,10 +2965,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" t="s">
         <v>241</v>
-      </c>
-      <c r="B14" t="s">
-        <v>242</v>
       </c>
       <c r="C14" t="s">
         <v>230</v>
@@ -2885,7 +3159,7 @@
         <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -3012,7 +3286,7 @@
         <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -3230,7 +3504,7 @@
         <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -3381,10 +3655,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="C74" t="s">
         <v>230</v>
@@ -3434,7 +3708,7 @@
         <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -3511,7 +3785,7 @@
         <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">

--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0252226-E11E-4D01-8F67-3122337571C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E425EEA-A828-48AB-8461-5F7B512AF8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
+    <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Linking station names" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="251">
   <si>
     <t>Acht</t>
   </si>
@@ -771,6 +771,24 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Tilburg Universiteit</t>
+  </si>
+  <si>
+    <t>'s-Hertogenbosch</t>
+  </si>
+  <si>
+    <t>Europoort</t>
+  </si>
+  <si>
+    <t>Beatrixhaven</t>
+  </si>
+  <si>
+    <t>Den Hamweg 55, 3089 KK Rotterdam</t>
+  </si>
+  <si>
+    <t>Steinweg Beatrix haven</t>
   </si>
 </sst>
 </file>
@@ -814,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -828,6 +846,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23A643-29F4-469D-948F-B38812878EAE}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1188,7 +1208,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D2,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D2,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Achtseweg Zuid, Eindhoven</v>
       </c>
     </row>
@@ -1206,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D3,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D3,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7607 ET Almelo</v>
       </c>
     </row>
@@ -1224,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D4,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D4,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piet Mondriaanplein 59, 3818 GZ Amersfoort</v>
       </c>
     </row>
@@ -1242,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D5,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D5,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsplein, 1012 AB Amsterdam</v>
       </c>
     </row>
@@ -1260,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D6,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D6,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg, 1014 BD Amsterdam</v>
       </c>
     </row>
@@ -1278,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D7,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D7,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Hornweg 32, 1044 AN  Amsterdam</v>
       </c>
     </row>
@@ -1296,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D8,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D8,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1314,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D9,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D9,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Funkenstiege 25, 48455 Bad Bentheim, Duitsland</v>
       </c>
     </row>
@@ -1332,7 +1352,7 @@
         <v>91</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D10,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D10,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
@@ -1350,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D11,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D11,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1368,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D12,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D12,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1386,7 +1406,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D13,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D13,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1404,7 +1424,7 @@
         <v>240</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D14,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D14,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>74321 Bietigheim-Bissingen, Germany</v>
       </c>
     </row>
@@ -1422,7 +1442,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D15,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D15,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1440,7 +1460,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D16,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D16,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1458,7 +1478,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D17,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D17,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1476,7 +1496,7 @@
         <v>218</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D18,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D18,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bottrop, Duitsland</v>
       </c>
     </row>
@@ -1494,7 +1514,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D19,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D19,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
@@ -1512,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D20,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D20,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
@@ -1530,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D21,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D21,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
@@ -1548,7 +1568,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D22,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D22,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dokweg, 3316 AD Dordrecht</v>
       </c>
     </row>
@@ -1566,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D23,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D23,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
       </c>
     </row>
@@ -1584,7 +1604,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D24,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D24,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1602,7 +1622,7 @@
         <v>31</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D25,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D25,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1620,7 +1640,7 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D26,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D26,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1638,7 +1658,7 @@
         <v>29</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D27,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D27,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1656,7 +1676,7 @@
         <v>232</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D28,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D28,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1674,7 +1694,7 @@
         <v>232</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D29,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D29,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1692,7 +1712,7 @@
         <v>52</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D30,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D30,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Eltville Ost, Duitsland</v>
       </c>
     </row>
@@ -1710,7 +1730,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D31,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D31,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
@@ -1728,7 +1748,7 @@
         <v>37</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D32,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D32,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
@@ -1746,13 +1766,13 @@
         <v>58</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D33,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D33,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="B34" s="6" t="b">
         <v>0</v>
@@ -1760,17 +1780,17 @@
       <c r="C34" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>41</v>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D34,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Piri Reisweg, Sevenum</v>
+        <f>_xlfn.XLOOKUP(D34,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Moezelweg 100, 3198 LS Europoort Rotterdam</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="6" t="b">
         <v>0</v>
@@ -1779,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D35,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Germersheim, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D35,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Piri Reisweg, Sevenum</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="6" t="b">
         <v>0</v>
@@ -1797,16 +1817,16 @@
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D36,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationspark 14, 4461 HK Goes</v>
+        <f>_xlfn.XLOOKUP(D36,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Germersheim, Duitsland</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="6" t="b">
         <v>0</v>
@@ -1815,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D37,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <f>_xlfn.XLOOKUP(D37,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationspark 14, 4461 HK Goes</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="6" t="b">
         <v>0</v>
@@ -1832,17 +1852,17 @@
       <c r="C38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>68</v>
+      <c r="D38" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E38" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D38,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D38,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" s="6" t="b">
         <v>0</v>
@@ -1850,17 +1870,17 @@
       <c r="C39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>47</v>
+      <c r="D39" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E39" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D39,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dortmuiden 5152, Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D39,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" s="6" t="b">
         <v>0</v>
@@ -1869,52 +1889,52 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E40" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D40,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Aristotelesstraat, 3076 BD Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D40,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D41,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D41,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Aristotelesstraat, 3076 BD Rotterdam</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C42" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D42,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Develsingel, Zwijndrecht</v>
+        <f>_xlfn.XLOOKUP(D42,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="6" t="b">
         <v>0</v>
@@ -1926,13 +1946,13 @@
         <v>53</v>
       </c>
       <c r="E43" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D43,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D43,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="6" t="b">
         <v>0</v>
@@ -1941,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E44" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D44,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D44,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="6" t="b">
         <v>0</v>
@@ -1958,17 +1978,17 @@
       <c r="C45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>82</v>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E45" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D45,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
+        <f>_xlfn.XLOOKUP(D45,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="B46" s="6" t="b">
         <v>0</v>
@@ -1976,17 +1996,17 @@
       <c r="C46" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
-        <v>57</v>
+      <c r="D46" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D46,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>47809 Krefeld, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D46,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="B47" s="6" t="b">
         <v>0</v>
@@ -1994,17 +2014,17 @@
       <c r="C47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>59</v>
+      <c r="D47" t="s">
+        <v>57</v>
       </c>
       <c r="E47" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D47,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
+        <f>_xlfn.XLOOKUP(D47,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>47809 Krefeld, Duitsland</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="6" t="b">
         <v>0</v>
@@ -2013,16 +2033,16 @@
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D48,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Oggersheim, Ludwigshafen, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D48,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="6" t="b">
         <v>0</v>
@@ -2031,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D49,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D49,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Oggersheim, Ludwigshafen, Duitsland</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="6" t="b">
         <v>0</v>
@@ -2052,13 +2072,13 @@
         <v>63</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D50,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D50,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" s="6" t="b">
         <v>0</v>
@@ -2067,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E51" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D51,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D51,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="6" t="b">
         <v>0</v>
@@ -2085,16 +2105,16 @@
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D52,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>3199, Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D52,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="6" t="b">
         <v>0</v>
@@ -2103,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D53,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D53,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B54" s="6" t="b">
         <v>0</v>
@@ -2124,13 +2144,13 @@
         <v>63</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D54,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D54,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="6" t="b">
         <v>0</v>
@@ -2142,13 +2162,13 @@
         <v>63</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D55,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D55,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B56" s="6" t="b">
         <v>0</v>
@@ -2157,16 +2177,16 @@
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D56,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D56,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" s="6" t="b">
         <v>0</v>
@@ -2175,16 +2195,16 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D57,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D57,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B58" s="6" t="b">
         <v>0</v>
@@ -2193,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D58,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Streefwaalseweg 15, 3195 KN Pernis</v>
+        <f>_xlfn.XLOOKUP(D58,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" s="6" t="b">
         <v>0</v>
@@ -2211,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D59,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moers, Bahnhof, Moers, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D59,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Streefwaalseweg 15, 3195 KN Pernis</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" s="6" t="b">
         <v>0</v>
@@ -2232,13 +2252,13 @@
         <v>108</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D60,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D60,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="6" t="b">
         <v>0</v>
@@ -2247,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D61,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D61,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="6" t="b">
         <v>0</v>
@@ -2264,17 +2284,17 @@
       <c r="C62" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>140</v>
+      <c r="D62" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E62" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D62,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D62,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="6" t="b">
         <v>0</v>
@@ -2283,37 +2303,37 @@
         <v>0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E63" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D63,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D63,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D64,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat, 7573 AT Oldenzaal</v>
+        <f>_xlfn.XLOOKUP(D64,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="6" t="b">
         <v>1</v>
@@ -2322,31 +2342,31 @@
         <v>75</v>
       </c>
       <c r="E65" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D65,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D65,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D66,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Waalkade 33, 5347 KS Oss</v>
+        <f>_xlfn.XLOOKUP(D66,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="6" t="b">
         <v>0</v>
@@ -2355,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="E67" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D67,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Opladen, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D67,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="6" t="b">
         <v>0</v>
@@ -2373,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E68" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D68,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Waalkade 33, 5347 KS Oss</v>
+        <f>_xlfn.XLOOKUP(D68,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Opladen, Duitsland</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="6" t="b">
         <v>0</v>
@@ -2391,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E69" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D69,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D69,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" s="6" t="b">
         <v>0</v>
@@ -2409,16 +2429,16 @@
         <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E70" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D70,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Fuutlaan, 5642 CV Eindhoven</v>
+        <f>_xlfn.XLOOKUP(D70,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="6" t="b">
         <v>0</v>
@@ -2427,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="E71" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D71,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <f>_xlfn.XLOOKUP(D71,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Fuutlaan, 5642 CV Eindhoven</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" s="6" t="b">
         <v>0</v>
@@ -2445,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E72" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D72,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Rheine, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D72,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="6" t="b">
         <v>0</v>
@@ -2463,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="E73" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D73,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D73,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Rheine, Duitsland</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" s="6" t="b">
         <v>0</v>
@@ -2481,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E74" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D74,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bosstraat 3, 4704 RL Roosendaal</v>
+        <f>_xlfn.XLOOKUP(D74,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="6" t="b">
         <v>0</v>
@@ -2499,16 +2519,16 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E75" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D75,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>3199, Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D75,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Bosstraat 3, 4704 RL Roosendaal</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="6" t="b">
         <v>0</v>
@@ -2516,17 +2536,17 @@
       <c r="C76" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>126</v>
+      <c r="D76" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="E76" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D76,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>4455 ST Nieuwdorp</v>
+        <f>_xlfn.XLOOKUP(D76,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>127</v>
+      <c r="A77" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="B77" s="6" t="b">
         <v>0</v>
@@ -2534,17 +2554,17 @@
       <c r="C77" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>127</v>
+      <c r="D77" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="E77" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D77,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Corsicaweg 343, 1044 AB Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D77,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>'s-Hertogenbosch</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78" s="6" t="b">
         <v>0</v>
@@ -2553,16 +2573,16 @@
         <v>0</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E78" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D78,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Houtbeekweg 2, 3776 LZ Stroe</v>
+        <f>_xlfn.XLOOKUP(D78,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>4455 ST Nieuwdorp</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B79" s="6" t="b">
         <v>0</v>
@@ -2571,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="E79" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D79,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
+        <f>_xlfn.XLOOKUP(D79,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Corsicaweg 343, 1044 AB Amsterdam</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B80" s="6" t="b">
         <v>0</v>
@@ -2588,17 +2608,17 @@
       <c r="C80" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>236</v>
+      <c r="D80" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="E80" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D80,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
+        <f>_xlfn.XLOOKUP(D80,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Den Hamweg 55, 3089 KK Rotterdam</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" s="6" t="b">
         <v>0</v>
@@ -2606,17 +2626,17 @@
       <c r="C81" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>91</v>
+      <c r="D81" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E81" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D81,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <f>_xlfn.XLOOKUP(D81,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Houtbeekweg 2, 3776 LZ Stroe</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="B82" s="6" t="b">
         <v>0</v>
@@ -2624,53 +2644,53 @@
       <c r="C82" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>93</v>
+      <c r="D82" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E82" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D82,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Uitgeest</v>
+        <f>_xlfn.XLOOKUP(D82,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="B83" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C83" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E83" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D83,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <f>_xlfn.XLOOKUP(D83,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B84" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E84" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D84,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <f>_xlfn.XLOOKUP(D84,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="B85" s="6" t="b">
         <v>0</v>
@@ -2679,16 +2699,16 @@
         <v>0</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E85" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D85,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dammweg, 41747 Viersen, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D85,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B86" s="6" t="b">
         <v>0</v>
@@ -2697,52 +2717,52 @@
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E86" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D86,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D86,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Uitgeest</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E87" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D87,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D87,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B88" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E88" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D88,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
+        <f>_xlfn.XLOOKUP(D88,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B89" s="6" t="b">
         <v>0</v>
@@ -2751,46 +2771,118 @@
         <v>0</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E89" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D89,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D89,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Dammweg, 41747 Viersen, Duitsland</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B90" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E90" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D90,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
+        <f>_xlfn.XLOOKUP(D90,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D91,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Botlek Rotterdam</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D92,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D93,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D94,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B91" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C91" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="B95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E91" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D91,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+      <c r="E95" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D95,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Overweg, 7202 AB Zutphen</v>
       </c>
     </row>
@@ -2801,10 +2893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D40E918-4E91-4C95-B234-1F9922AFEF3D}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2954,46 +3046,49 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
         <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="D15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>229</v>
@@ -3001,10 +3096,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
         <v>229</v>
@@ -3012,35 +3107,35 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="D19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
         <v>229</v>
@@ -3048,10 +3143,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -3059,10 +3154,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
         <v>229</v>
@@ -3070,21 +3165,21 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>230</v>
@@ -3092,10 +3187,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
         <v>230</v>
@@ -3103,35 +3198,35 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="C27" t="s">
         <v>229</v>
+      </c>
+      <c r="D27" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
         <v>229</v>
@@ -3139,46 +3234,46 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
         <v>230</v>
       </c>
+      <c r="D30" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
         <v>229</v>
@@ -3186,10 +3281,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
         <v>229</v>
@@ -3197,27 +3292,24 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
         <v>214</v>
@@ -3225,43 +3317,46 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
         <v>229</v>
+      </c>
+      <c r="D36" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>171</v>
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>172</v>
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C39" t="s">
         <v>229</v>
@@ -3269,10 +3364,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
         <v>229</v>
@@ -3280,76 +3375,76 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>177</v>
+        <v>55</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
         <v>229</v>
@@ -3357,71 +3452,71 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D48" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="D49" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
         <v>230</v>
       </c>
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>183</v>
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>184</v>
+        <v>106</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C53" t="s">
         <v>229</v>
@@ -3429,46 +3524,46 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
-      </c>
-      <c r="D54" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
         <v>230</v>
       </c>
+      <c r="D55" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
         <v>229</v>
@@ -3476,10 +3571,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
         <v>229</v>
@@ -3487,32 +3582,32 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
         <v>229</v>
@@ -3520,10 +3615,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
         <v>229</v>
@@ -3531,35 +3626,35 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="D64" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
         <v>229</v>
@@ -3567,21 +3662,21 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
         <v>230</v>
@@ -3589,21 +3684,21 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
         <v>229</v>
@@ -3611,32 +3706,35 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C70" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" t="s">
-        <v>198</v>
+      <c r="A71" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="C71" t="s">
         <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>199</v>
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>197</v>
       </c>
       <c r="C72" t="s">
         <v>229</v>
@@ -3644,10 +3742,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>200</v>
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>198</v>
       </c>
       <c r="C73" t="s">
         <v>229</v>
@@ -3655,24 +3753,21 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" t="s">
-        <v>201</v>
+        <v>128</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C75" t="s">
         <v>229</v>
@@ -3680,21 +3775,24 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" t="s">
-        <v>130</v>
+        <v>236</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="D76" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
         <v>229</v>
@@ -3702,10 +3800,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
         <v>229</v>
@@ -3713,21 +3811,21 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
         <v>229</v>
@@ -3735,21 +3833,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
         <v>229</v>
@@ -3757,10 +3855,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
         <v>229</v>
@@ -3768,10 +3866,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C84" t="s">
         <v>229</v>
@@ -3779,10 +3877,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
         <v>229</v>
@@ -3790,34 +3888,56 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>109</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>211</v>
       </c>
-      <c r="C86" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="C88" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E425EEA-A828-48AB-8461-5F7B512AF8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC67C7C-BD1B-4399-B803-DFCE6B176430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="252">
   <si>
     <t>Acht</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Duisburg-Ruhrort Hafen</t>
   </si>
   <si>
-    <t xml:space="preserve">Houtrakpolder, emplacement               </t>
-  </si>
-  <si>
     <t>ECT noord</t>
   </si>
   <si>
@@ -789,6 +786,12 @@
   </si>
   <si>
     <t>Steinweg Beatrix haven</t>
+  </si>
+  <si>
+    <t>Houtrakpolder, emplacement</t>
+  </si>
+  <si>
+    <t>Houtrakpolder aansl.(Amsterdam)</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23A643-29F4-469D-948F-B38812878EAE}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,19 +1182,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1349,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="str">
         <f>_xlfn.XLOOKUP(D10,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>0</v>
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>_xlfn.XLOOKUP(D14,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="6" t="b">
         <v>0</v>
@@ -1493,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>_xlfn.XLOOKUP(D18,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1511,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>_xlfn.XLOOKUP(D19,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="6" t="b">
         <v>0</v>
@@ -1673,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" s="3" t="str">
         <f>_xlfn.XLOOKUP(D28,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="b">
         <v>0</v>
@@ -1691,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" s="3" t="str">
         <f>_xlfn.XLOOKUP(D29,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6" t="b">
         <v>0</v>
@@ -1709,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3" t="str">
         <f>_xlfn.XLOOKUP(D30,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1718,7 +1721,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="6" t="b">
         <v>0</v>
@@ -1736,7 +1739,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="6" t="b">
         <v>1</v>
@@ -1754,7 +1757,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="6" t="b">
         <v>0</v>
@@ -1763,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="3" t="str">
         <f>_xlfn.XLOOKUP(D33,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34" s="6" t="b">
         <v>0</v>
@@ -1790,7 +1793,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="6" t="b">
         <v>0</v>
@@ -1808,7 +1811,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="6" t="b">
         <v>0</v>
@@ -1817,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="3" t="str">
         <f>_xlfn.XLOOKUP(D36,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="6" t="b">
         <v>0</v>
@@ -1835,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="3" t="str">
         <f>_xlfn.XLOOKUP(D37,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="6" t="b">
         <v>0</v>
@@ -1853,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3" t="str">
         <f>_xlfn.XLOOKUP(D38,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="6" t="b">
         <v>0</v>
@@ -1871,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="3" t="str">
         <f>_xlfn.XLOOKUP(D39,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="6" t="b">
         <v>0</v>
@@ -1889,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="E40" s="3" t="str">
         <f>_xlfn.XLOOKUP(D40,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1898,7 +1901,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="B41" s="6" t="b">
         <v>0</v>
@@ -1907,52 +1910,52 @@
         <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="E41" s="3" t="str">
         <f>_xlfn.XLOOKUP(D41,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Aristotelesstraat, 3076 BD Rotterdam</v>
+        <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C42" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E42" s="3" t="str">
         <f>_xlfn.XLOOKUP(D42,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
+        <v>Aristotelesstraat, 3076 BD Rotterdam</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E43" s="3" t="str">
         <f>_xlfn.XLOOKUP(D43,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Develsingel, Zwijndrecht</v>
+        <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" s="6" t="b">
         <v>0</v>
@@ -1961,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="3" t="str">
         <f>_xlfn.XLOOKUP(D44,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -1970,7 +1973,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B45" s="6" t="b">
         <v>0</v>
@@ -1979,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E45" s="3" t="str">
         <f>_xlfn.XLOOKUP(D45,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" s="6" t="b">
         <v>0</v>
@@ -1996,17 +1999,17 @@
       <c r="C46" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>82</v>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E46" s="3" t="str">
         <f>_xlfn.XLOOKUP(D46,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="B47" s="6" t="b">
         <v>0</v>
@@ -2014,17 +2017,17 @@
       <c r="C47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
-        <v>57</v>
+      <c r="D47" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E47" s="3" t="str">
         <f>_xlfn.XLOOKUP(D47,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>47809 Krefeld, Duitsland</v>
+        <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="B48" s="6" t="b">
         <v>0</v>
@@ -2032,17 +2035,17 @@
       <c r="C48" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>59</v>
+      <c r="D48" t="s">
+        <v>56</v>
       </c>
       <c r="E48" s="3" t="str">
         <f>_xlfn.XLOOKUP(D48,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
+        <v>47809 Krefeld, Duitsland</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B49" s="6" t="b">
         <v>0</v>
@@ -2051,16 +2054,16 @@
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E49" s="3" t="str">
         <f>_xlfn.XLOOKUP(D49,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Oggersheim, Ludwigshafen, Duitsland</v>
+        <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B50" s="6" t="b">
         <v>0</v>
@@ -2069,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E50" s="3" t="str">
         <f>_xlfn.XLOOKUP(D50,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <v>Oggersheim, Ludwigshafen, Duitsland</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B51" s="6" t="b">
         <v>0</v>
@@ -2087,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" s="3" t="str">
         <f>_xlfn.XLOOKUP(D51,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B52" s="6" t="b">
         <v>0</v>
@@ -2105,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E52" s="3" t="str">
         <f>_xlfn.XLOOKUP(D52,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B53" s="6" t="b">
         <v>0</v>
@@ -2123,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="E53" s="3" t="str">
         <f>_xlfn.XLOOKUP(D53,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>3199, Maasvlakte Rotterdam</v>
+        <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B54" s="6" t="b">
         <v>0</v>
@@ -2141,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E54" s="3" t="str">
         <f>_xlfn.XLOOKUP(D54,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B55" s="6" t="b">
         <v>0</v>
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" s="3" t="str">
         <f>_xlfn.XLOOKUP(D55,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B56" s="6" t="b">
         <v>0</v>
@@ -2177,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="3" t="str">
         <f>_xlfn.XLOOKUP(D56,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2186,7 +2189,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B57" s="6" t="b">
         <v>0</v>
@@ -2195,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E57" s="3" t="str">
         <f>_xlfn.XLOOKUP(D57,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B58" s="6" t="b">
         <v>0</v>
@@ -2213,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E58" s="3" t="str">
         <f>_xlfn.XLOOKUP(D58,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
+        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B59" s="6" t="b">
         <v>0</v>
@@ -2231,16 +2234,16 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E59" s="3" t="str">
         <f>_xlfn.XLOOKUP(D59,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Streefwaalseweg 15, 3195 KN Pernis</v>
+        <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B60" s="6" t="b">
         <v>0</v>
@@ -2249,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E60" s="3" t="str">
         <f>_xlfn.XLOOKUP(D60,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moers, Bahnhof, Moers, Duitsland</v>
+        <v>Streefwaalseweg 15, 3195 KN Pernis</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B61" s="6" t="b">
         <v>0</v>
@@ -2267,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="3" t="str">
         <f>_xlfn.XLOOKUP(D61,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2276,7 +2279,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" s="6" t="b">
         <v>0</v>
@@ -2285,16 +2288,16 @@
         <v>0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E62" s="3" t="str">
         <f>_xlfn.XLOOKUP(D62,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
+        <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" s="6" t="b">
         <v>0</v>
@@ -2302,17 +2305,17 @@
       <c r="C63" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>140</v>
+      <c r="D63" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E63" s="3" t="str">
         <f>_xlfn.XLOOKUP(D63,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
+        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" s="6" t="b">
         <v>0</v>
@@ -2321,43 +2324,43 @@
         <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E64" s="3" t="str">
         <f>_xlfn.XLOOKUP(D64,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
+        <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C65" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E65" s="3" t="str">
         <f>_xlfn.XLOOKUP(D65,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat, 7573 AT Oldenzaal</v>
+        <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B66" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E66" s="3" t="str">
         <f>_xlfn.XLOOKUP(D66,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2366,25 +2369,25 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B67" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E67" s="3" t="str">
         <f>_xlfn.XLOOKUP(D67,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Waalkade 33, 5347 KS Oss</v>
+        <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B68" s="6" t="b">
         <v>0</v>
@@ -2393,16 +2396,16 @@
         <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="E68" s="3" t="str">
         <f>_xlfn.XLOOKUP(D68,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Opladen, Duitsland</v>
+        <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B69" s="6" t="b">
         <v>0</v>
@@ -2411,16 +2414,16 @@
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="E69" s="3" t="str">
         <f>_xlfn.XLOOKUP(D69,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Waalkade 33, 5347 KS Oss</v>
+        <v>Opladen, Duitsland</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B70" s="6" t="b">
         <v>0</v>
@@ -2429,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E70" s="3" t="str">
         <f>_xlfn.XLOOKUP(D70,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
+        <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71" s="6" t="b">
         <v>0</v>
@@ -2447,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E71" s="3" t="str">
         <f>_xlfn.XLOOKUP(D71,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Fuutlaan, 5642 CV Eindhoven</v>
+        <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B72" s="6" t="b">
         <v>0</v>
@@ -2465,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="E72" s="3" t="str">
         <f>_xlfn.XLOOKUP(D72,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <v>Fuutlaan, 5642 CV Eindhoven</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" s="6" t="b">
         <v>0</v>
@@ -2483,16 +2486,16 @@
         <v>0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E73" s="3" t="str">
         <f>_xlfn.XLOOKUP(D73,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Rheine, Duitsland</v>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B74" s="6" t="b">
         <v>0</v>
@@ -2501,16 +2504,16 @@
         <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E74" s="3" t="str">
         <f>_xlfn.XLOOKUP(D74,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
+        <v>Rheine, Duitsland</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75" s="6" t="b">
         <v>0</v>
@@ -2519,16 +2522,16 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E75" s="3" t="str">
         <f>_xlfn.XLOOKUP(D75,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bosstraat 3, 4704 RL Roosendaal</v>
+        <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="6" t="b">
         <v>0</v>
@@ -2537,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="E76" s="3" t="str">
         <f>_xlfn.XLOOKUP(D76,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>3199, Maasvlakte Rotterdam</v>
+        <v>Bosstraat 3, 4704 RL Roosendaal</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
-        <v>246</v>
+      <c r="A77" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B77" s="6" t="b">
         <v>0</v>
@@ -2554,17 +2557,17 @@
       <c r="C77" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>246</v>
+      <c r="D77" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E77" s="3" t="str">
         <f>_xlfn.XLOOKUP(D77,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>'s-Hertogenbosch</v>
+        <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>126</v>
+      <c r="A78" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="B78" s="6" t="b">
         <v>0</v>
@@ -2572,17 +2575,17 @@
       <c r="C78" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>126</v>
+      <c r="D78" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E78" s="3" t="str">
         <f>_xlfn.XLOOKUP(D78,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>4455 ST Nieuwdorp</v>
+        <v>'s-Hertogenbosch</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="6" t="b">
         <v>0</v>
@@ -2591,16 +2594,16 @@
         <v>0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E79" s="3" t="str">
         <f>_xlfn.XLOOKUP(D79,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Corsicaweg 343, 1044 AB Amsterdam</v>
+        <v>4455 ST Nieuwdorp</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="B80" s="6" t="b">
         <v>0</v>
@@ -2608,17 +2611,17 @@
       <c r="C80" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>248</v>
+      <c r="D80" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="E80" s="3" t="str">
         <f>_xlfn.XLOOKUP(D80,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Den Hamweg 55, 3089 KK Rotterdam</v>
+        <v>Corsicaweg 343, 1044 AB Amsterdam</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="B81" s="6" t="b">
         <v>0</v>
@@ -2626,17 +2629,17 @@
       <c r="C81" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>128</v>
+      <c r="D81" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E81" s="3" t="str">
         <f>_xlfn.XLOOKUP(D81,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Houtbeekweg 2, 3776 LZ Stroe</v>
+        <v>Den Hamweg 55, 3089 KK Rotterdam</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B82" s="6" t="b">
         <v>0</v>
@@ -2645,11 +2648,11 @@
         <v>0</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="E82" s="3" t="str">
         <f>_xlfn.XLOOKUP(D82,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
+        <v>Houtbeekweg 2, 3776 LZ Stroe</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -2663,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E83" s="3" t="str">
         <f>_xlfn.XLOOKUP(D83,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="B84" s="6" t="b">
         <v>0</v>
@@ -2680,17 +2683,17 @@
       <c r="C84" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>91</v>
+      <c r="D84" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="E84" s="3" t="str">
         <f>_xlfn.XLOOKUP(D84,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="B85" s="6" t="b">
         <v>0</v>
@@ -2699,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" s="3" t="str">
         <f>_xlfn.XLOOKUP(D85,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2708,7 +2711,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="B86" s="6" t="b">
         <v>0</v>
@@ -2717,43 +2720,43 @@
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E86" s="3" t="str">
         <f>_xlfn.XLOOKUP(D86,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Uitgeest</v>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E87" s="3" t="str">
         <f>_xlfn.XLOOKUP(D87,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <v>Uitgeest</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B88" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E88" s="3" t="str">
         <f>_xlfn.XLOOKUP(D88,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
@@ -2762,25 +2765,25 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B89" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E89" s="3" t="str">
         <f>_xlfn.XLOOKUP(D89,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dammweg, 41747 Viersen, Duitsland</v>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B90" s="6" t="b">
         <v>0</v>
@@ -2789,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E90" s="3" t="str">
         <f>_xlfn.XLOOKUP(D90,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <v>Dammweg, 41747 Viersen, Duitsland</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B91" s="6" t="b">
         <v>0</v>
@@ -2816,7 +2819,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B92" s="6" t="b">
         <v>0</v>
@@ -2824,17 +2827,17 @@
       <c r="C92" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>136</v>
+      <c r="D92" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E92" s="3" t="str">
         <f>_xlfn.XLOOKUP(D92,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B93" s="6" t="b">
         <v>0</v>
@@ -2842,47 +2845,65 @@
       <c r="C93" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>103</v>
+      <c r="D93" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E93" s="3" t="str">
         <f>_xlfn.XLOOKUP(D93,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
+        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B94" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E94" s="3" t="str">
         <f>_xlfn.XLOOKUP(D94,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
+        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B95" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E95" s="3" t="str">
         <f>_xlfn.XLOOKUP(D95,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="3" t="str">
+        <f>_xlfn.XLOOKUP(D96,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Overweg, 7202 AB Zutphen</v>
       </c>
     </row>
@@ -2895,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D40E918-4E91-4C95-B234-1F9922AFEF3D}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A68" sqref="A67:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2908,16 +2929,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2925,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2936,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2947,10 +2968,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2958,10 +2979,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2969,10 +2990,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2980,10 +3001,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2991,10 +3012,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -3002,13 +3023,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -3016,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -3027,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -3038,24 +3059,24 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" t="s">
         <v>248</v>
       </c>
-      <c r="B13" t="s">
-        <v>249</v>
-      </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -3063,24 +3084,24 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" t="s">
         <v>240</v>
       </c>
-      <c r="B15" t="s">
-        <v>241</v>
-      </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -3088,10 +3109,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -3099,10 +3120,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -3110,24 +3131,24 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -3135,10 +3156,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -3146,10 +3167,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -3157,10 +3178,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -3168,10 +3189,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -3179,10 +3200,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -3190,10 +3211,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3201,24 +3222,24 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" t="s">
         <v>232</v>
       </c>
-      <c r="B27" t="s">
-        <v>233</v>
-      </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -3226,10 +3247,10 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3237,24 +3258,24 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -3262,21 +3283,21 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -3284,10 +3305,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -3295,38 +3316,38 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -3334,10 +3355,10 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -3345,578 +3366,578 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">

--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\thesis\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC67C7C-BD1B-4399-B803-DFCE6B176430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B6988-F395-4C94-A1FC-64E822CEDB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15585" windowWidth="29040" windowHeight="15840" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
+    <workbookView xWindow="-23148" yWindow="12804" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Linking station names" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="247">
   <si>
     <t>Acht</t>
   </si>
@@ -221,9 +220,6 @@
     <t>Leusden, PON</t>
   </si>
   <si>
-    <t>Germersheim</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maasvlakte, emplacement                     </t>
   </si>
   <si>
@@ -680,9 +676,6 @@
     <t>Determined by Mats</t>
   </si>
   <si>
-    <t>Germersheim, Duitsland</t>
-  </si>
-  <si>
     <t>Eltville Ost, Duitsland</t>
   </si>
   <si>
@@ -746,21 +739,6 @@
     <t>Stuttgart</t>
   </si>
   <si>
-    <t>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Stuttgart Hbf</t>
-  </si>
-  <si>
-    <t>Stuttgart Hafen</t>
-  </si>
-  <si>
-    <t>Bietigheim-Bissingen</t>
-  </si>
-  <si>
-    <t>74321 Bietigheim-Bissingen, Germany</t>
-  </si>
-  <si>
     <t>Is border?</t>
   </si>
   <si>
@@ -792,6 +770,12 @@
   </si>
   <si>
     <t>Houtrakpolder aansl.(Amsterdam)</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23A643-29F4-469D-948F-B38812878EAE}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,19 +1166,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1211,7 +1195,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D2,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D2,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Achtseweg Zuid, Eindhoven</v>
       </c>
     </row>
@@ -1229,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D3,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D3,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7607 ET Almelo</v>
       </c>
     </row>
@@ -1247,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D4,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D4,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piet Mondriaanplein 59, 3818 GZ Amersfoort</v>
       </c>
     </row>
@@ -1265,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D5,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D5,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsplein, 1012 AB Amsterdam</v>
       </c>
     </row>
@@ -1283,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D6,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D6,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg, 1014 BD Amsterdam</v>
       </c>
     </row>
@@ -1301,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D7,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D7,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Hornweg 32, 1044 AN  Amsterdam</v>
       </c>
     </row>
@@ -1319,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D8,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D8,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1337,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D9,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D9,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Funkenstiege 25, 48455 Bad Bentheim, Duitsland</v>
       </c>
     </row>
@@ -1352,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D10,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D10,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
@@ -1373,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D11,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D11,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1391,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D12,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D12,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1409,13 +1393,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D13,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D13,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>0</v>
@@ -1424,16 +1408,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D14,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>74321 Bietigheim-Bissingen, Germany</v>
+        <f>_xlfn.XLOOKUP(D14,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6" t="b">
         <v>0</v>
@@ -1445,13 +1429,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D15,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D15,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="B16" s="6" t="b">
         <v>0</v>
@@ -1463,13 +1447,13 @@
         <v>19</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D16,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D16,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="b">
         <v>0</v>
@@ -1478,16 +1462,16 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D17,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D17,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Bottrop, Duitsland</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6" t="b">
         <v>0</v>
@@ -1496,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D18,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bottrop, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D18,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="6" t="b">
         <v>0</v>
@@ -1514,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D19,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D19,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="b">
         <v>0</v>
@@ -1535,13 +1519,13 @@
         <v>23</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D20,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D20,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="b">
         <v>0</v>
@@ -1550,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D21,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Saxion Deventer Ophaalpunt</v>
+        <f>_xlfn.XLOOKUP(D21,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Dokweg, 3316 AD Dordrecht</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="b">
         <v>0</v>
@@ -1568,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D22,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dokweg, 3316 AD Dordrecht</v>
+        <f>_xlfn.XLOOKUP(D22,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="b">
         <v>0</v>
@@ -1586,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D23,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D23,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="b">
         <v>0</v>
@@ -1607,13 +1591,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D24,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D24,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6" t="b">
         <v>0</v>
@@ -1622,16 +1606,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D25,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>47055 Duisburg, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D25,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="6" t="b">
         <v>0</v>
@@ -1643,13 +1627,13 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D26,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D26,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6" t="b">
         <v>0</v>
@@ -1658,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D27,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D27,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6" t="b">
         <v>0</v>
@@ -1676,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D28,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D28,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="6" t="b">
         <v>0</v>
@@ -1694,37 +1678,37 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D29,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D29,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Eltville Ost, Duitsland</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D30,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Eltville Ost, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D30,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="6" t="b">
         <v>1</v>
@@ -1733,31 +1717,31 @@
         <v>37</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D31,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D31,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D32,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D32,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="B33" s="6" t="b">
         <v>0</v>
@@ -1766,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D33,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D33,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Moezelweg 100, 3198 LS Europoort Rotterdam</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="B34" s="6" t="b">
         <v>0</v>
@@ -1783,17 +1767,17 @@
       <c r="C34" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>39</v>
+      <c r="D34" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D34,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moezelweg 100, 3198 LS Europoort Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D34,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Piri Reisweg, Sevenum</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B35" s="6" t="b">
         <v>0</v>
@@ -1802,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D35,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Piri Reisweg, Sevenum</v>
+        <f>_xlfn.XLOOKUP(D35,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationspark 14, 4461 HK Goes</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" s="6" t="b">
         <v>0</v>
@@ -1820,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D36,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Germersheim, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D36,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="6" t="b">
         <v>0</v>
@@ -1837,17 +1821,17 @@
       <c r="C37" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>63</v>
+      <c r="D37" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D37,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationspark 14, 4461 HK Goes</v>
+        <f>_xlfn.XLOOKUP(D37,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38" s="6" t="b">
         <v>0</v>
@@ -1856,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="E38" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D38,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <f>_xlfn.XLOOKUP(D38,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="B39" s="6" t="b">
         <v>0</v>
@@ -1873,17 +1857,17 @@
       <c r="C39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>67</v>
+      <c r="D39" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="E39" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D39,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D39,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="6" t="b">
         <v>0</v>
@@ -1892,34 +1876,34 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D40,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dortmuiden 5152, Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D40,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Aristotelesstraat, 3076 BD Rotterdam</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="B41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E41" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D41,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dortmuiden 5152, Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D41,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B42" s="6" t="b">
         <v>0</v>
@@ -1928,34 +1912,34 @@
         <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D42,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Aristotelesstraat, 3076 BD Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D42,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E43" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D43,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D43,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B44" s="6" t="b">
         <v>0</v>
@@ -1964,16 +1948,16 @@
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E44" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D44,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Develsingel, Zwijndrecht</v>
+        <f>_xlfn.XLOOKUP(D44,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B45" s="6" t="b">
         <v>0</v>
@@ -1981,17 +1965,17 @@
       <c r="C45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>52</v>
+      <c r="D45" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E45" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D45,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Develsingel, Zwijndrecht</v>
+        <f>_xlfn.XLOOKUP(D45,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="B46" s="6" t="b">
         <v>0</v>
@@ -1999,17 +1983,17 @@
       <c r="C46" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>19</v>
+      <c r="D46" t="s">
+        <v>56</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D46,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D46,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>47809 Krefeld, Duitsland</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="6" t="b">
         <v>0</v>
@@ -2017,17 +2001,17 @@
       <c r="C47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>81</v>
+      <c r="D47" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E47" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D47,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
+        <f>_xlfn.XLOOKUP(D47,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="B48" s="6" t="b">
         <v>0</v>
@@ -2035,17 +2019,17 @@
       <c r="C48" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
-        <v>56</v>
+      <c r="D48" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D48,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>47809 Krefeld, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D48,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Oggersheim, Ludwigshafen, Duitsland</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49" s="6" t="b">
         <v>0</v>
@@ -2054,16 +2038,16 @@
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D49,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
+        <f>_xlfn.XLOOKUP(D49,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50" s="6" t="b">
         <v>0</v>
@@ -2072,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D50,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Oggersheim, Ludwigshafen, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D50,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B51" s="6" t="b">
         <v>0</v>
@@ -2090,16 +2074,16 @@
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E51" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D51,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D51,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B52" s="6" t="b">
         <v>0</v>
@@ -2108,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E52" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D52,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D52,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B53" s="6" t="b">
         <v>0</v>
@@ -2126,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D53,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D53,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B54" s="6" t="b">
         <v>0</v>
@@ -2144,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D54,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>3199, Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D54,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B55" s="6" t="b">
         <v>0</v>
@@ -2162,16 +2146,16 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D55,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D55,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" s="6" t="b">
         <v>0</v>
@@ -2180,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D56,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D56,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B57" s="6" t="b">
         <v>0</v>
@@ -2198,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D57,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D57,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B58" s="6" t="b">
         <v>0</v>
@@ -2216,16 +2200,16 @@
         <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D58,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D58,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Streefwaalseweg 15, 3195 KN Pernis</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B59" s="6" t="b">
         <v>0</v>
@@ -2234,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D59,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D59,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B60" s="6" t="b">
         <v>0</v>
@@ -2252,16 +2236,16 @@
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D60,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Streefwaalseweg 15, 3195 KN Pernis</v>
+        <f>_xlfn.XLOOKUP(D60,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="6" t="b">
         <v>0</v>
@@ -2270,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D61,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moers, Bahnhof, Moers, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D61,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B62" s="6" t="b">
         <v>0</v>
@@ -2287,17 +2271,17 @@
       <c r="C62" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>107</v>
+      <c r="D62" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E62" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D62,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moers, Bahnhof, Moers, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D62,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B63" s="6" t="b">
         <v>0</v>
@@ -2305,89 +2289,89 @@
       <c r="C63" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>68</v>
+      <c r="D63" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E63" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D63,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D63,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B64" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D64,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D64,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B65" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E65" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D65,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D65,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B66" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C66" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D66,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat, 7573 AT Oldenzaal</v>
+        <f>_xlfn.XLOOKUP(D66,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B67" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="E67" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D67,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat, 7573 AT Oldenzaal</v>
+        <f>_xlfn.XLOOKUP(D67,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Opladen, Duitsland</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B68" s="6" t="b">
         <v>0</v>
@@ -2396,16 +2380,16 @@
         <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E68" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D68,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D68,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B69" s="6" t="b">
         <v>0</v>
@@ -2414,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E69" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D69,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Opladen, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D69,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B70" s="6" t="b">
         <v>0</v>
@@ -2432,16 +2416,16 @@
         <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E70" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D70,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Waalkade 33, 5347 KS Oss</v>
+        <f>_xlfn.XLOOKUP(D70,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Fuutlaan, 5642 CV Eindhoven</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B71" s="6" t="b">
         <v>0</v>
@@ -2450,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E71" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D71,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D71,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B72" s="6" t="b">
         <v>0</v>
@@ -2468,16 +2452,16 @@
         <v>0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="E72" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D72,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Fuutlaan, 5642 CV Eindhoven</v>
+        <f>_xlfn.XLOOKUP(D72,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Rheine, Duitsland</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B73" s="6" t="b">
         <v>0</v>
@@ -2486,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E73" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D73,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <f>_xlfn.XLOOKUP(D73,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B74" s="6" t="b">
         <v>0</v>
@@ -2504,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E74" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D74,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Rheine, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D74,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Bosstraat 3, 4704 RL Roosendaal</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B75" s="6" t="b">
         <v>0</v>
@@ -2522,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="E75" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D75,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D75,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>123</v>
+      <c r="A76" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B76" s="6" t="b">
         <v>0</v>
@@ -2539,12 +2523,12 @@
       <c r="C76" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>86</v>
+      <c r="D76" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="E76" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D76,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Bosstraat 3, 4704 RL Roosendaal</v>
+        <f>_xlfn.XLOOKUP(D76,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>'s-Hertogenbosch</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2557,17 +2541,17 @@
       <c r="C77" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D77,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>3199, Maasvlakte Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D77,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>4455 ST Nieuwdorp</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
-        <v>245</v>
+      <c r="A78" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B78" s="6" t="b">
         <v>0</v>
@@ -2575,17 +2559,17 @@
       <c r="C78" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>245</v>
+      <c r="D78" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E78" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D78,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>'s-Hertogenbosch</v>
+        <f>_xlfn.XLOOKUP(D78,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Corsicaweg 343, 1044 AB Amsterdam</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="B79" s="6" t="b">
         <v>0</v>
@@ -2593,12 +2577,12 @@
       <c r="C79" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>125</v>
+      <c r="D79" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="E79" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D79,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>4455 ST Nieuwdorp</v>
+        <f>_xlfn.XLOOKUP(D79,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Den Hamweg 55, 3089 KK Rotterdam</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2615,13 +2599,13 @@
         <v>126</v>
       </c>
       <c r="E80" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D80,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Corsicaweg 343, 1044 AB Amsterdam</v>
+        <f>_xlfn.XLOOKUP(D80,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Houtbeekweg 2, 3776 LZ Stroe</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B81" s="6" t="b">
         <v>0</v>
@@ -2629,12 +2613,12 @@
       <c r="C81" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>247</v>
+      <c r="D81" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="E81" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D81,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Den Hamweg 55, 3089 KK Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D81,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stuttgart, Germany</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2647,17 +2631,17 @@
       <c r="C82" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>127</v>
+      <c r="D82" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E82" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D82,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Houtbeekweg 2, 3776 LZ Stroe</v>
+        <f>_xlfn.XLOOKUP(D82,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B83" s="6" t="b">
         <v>0</v>
@@ -2665,17 +2649,17 @@
       <c r="C83" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>235</v>
+      <c r="D83" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E83" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D83,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
+        <f>_xlfn.XLOOKUP(D83,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="B84" s="6" t="b">
         <v>0</v>
@@ -2683,53 +2667,53 @@
       <c r="C84" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>235</v>
+      <c r="D84" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E84" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D84,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Arnulf-Klett-Platz 2, 70173 Stuttgart, Germany</v>
+        <f>_xlfn.XLOOKUP(D84,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Uitgeest</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B85" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C85" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E85" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D85,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <f>_xlfn.XLOOKUP(D85,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="B86" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E86" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D86,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <f>_xlfn.XLOOKUP(D86,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B87" s="6" t="b">
         <v>0</v>
@@ -2738,52 +2722,52 @@
         <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E87" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D87,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Uitgeest</v>
+        <f>_xlfn.XLOOKUP(D87,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Dammweg, 41747 Viersen, Duitsland</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B88" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="E88" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D88,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <f>_xlfn.XLOOKUP(D88,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B89" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="E89" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D89,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <f>_xlfn.XLOOKUP(D89,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B90" s="6" t="b">
         <v>0</v>
@@ -2791,17 +2775,17 @@
       <c r="C90" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>98</v>
+      <c r="D90" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E90" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D90,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dammweg, 41747 Viersen, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D90,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B91" s="6" t="b">
         <v>0</v>
@@ -2810,34 +2794,34 @@
         <v>0</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="E91" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D91,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D91,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B92" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E92" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D92,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D92,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B93" s="6" t="b">
         <v>0</v>
@@ -2845,65 +2829,11 @@
       <c r="C93" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>135</v>
+      <c r="D93" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E93" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D93,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C94" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D94,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C95" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E95" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D95,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C96" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E96" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D96,'Station addresses'!$A$2:$A$1015,'Station addresses'!$B$2:$B$1015,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D93,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Overweg, 7202 AB Zutphen</v>
       </c>
     </row>
@@ -2914,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D40E918-4E91-4C95-B234-1F9922AFEF3D}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A68" sqref="A67:A68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2929,16 +2859,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2946,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2957,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2968,10 +2898,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2979,10 +2909,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2990,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -3001,10 +2931,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -3012,10 +2942,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -3023,13 +2953,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -3037,10 +2967,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -3048,10 +2978,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -3059,24 +2989,24 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -3084,881 +3014,853 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="D26" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>168</v>
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>170</v>
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>173</v>
+        <v>54</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>175</v>
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>220</v>
+        <v>104</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>182</v>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
       </c>
       <c r="C53" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D53" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D62" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
         <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
         <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" t="s">
-        <v>195</v>
+      <c r="A69" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>124</v>
       </c>
-      <c r="B70" t="s">
-        <v>233</v>
-      </c>
-      <c r="C70" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>245</v>
+      <c r="B71" t="s">
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
-      </c>
-      <c r="D71" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" t="s">
-        <v>196</v>
+        <v>125</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" t="s">
-        <v>197</v>
+        <v>126</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D74" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
         <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>235</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>236</v>
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
         <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C84" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C86" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" t="s">
-        <v>209</v>
-      </c>
-      <c r="C87" t="s">
-        <v>228</v>
-      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" t="s">
-        <v>210</v>
-      </c>
-      <c r="C88" t="s">
-        <v>228</v>
-      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/stationAddresses.xlsx
+++ b/input/stationAddresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\thesis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B6988-F395-4C94-A1FC-64E822CEDB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8751B1BB-6C75-40CB-B82F-E781C6667237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="12804" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4B0D1EE3-07DA-4BB2-A671-24263A9F0D10}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="244">
   <si>
     <t>Acht</t>
   </si>
@@ -736,9 +736,6 @@
     <t>Krefeld Gbf</t>
   </si>
   <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
     <t>Is border?</t>
   </si>
   <si>
@@ -770,12 +767,6 @@
   </si>
   <si>
     <t>Houtrakpolder aansl.(Amsterdam)</t>
-  </si>
-  <si>
-    <t>Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1149,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23A643-29F4-469D-948F-B38812878EAE}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1169,10 +1160,10 @@
         <v>139</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>223</v>
@@ -1195,7 +1186,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D2,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D2,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Achtseweg Zuid, Eindhoven</v>
       </c>
     </row>
@@ -1213,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D3,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D3,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7607 ET Almelo</v>
       </c>
     </row>
@@ -1231,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D4,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D4,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piet Mondriaanplein 59, 3818 GZ Amersfoort</v>
       </c>
     </row>
@@ -1249,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D5,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D5,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsplein, 1012 AB Amsterdam</v>
       </c>
     </row>
@@ -1267,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D6,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D6,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg, 1014 BD Amsterdam</v>
       </c>
     </row>
@@ -1285,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D7,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D7,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Hornweg 32, 1044 AN  Amsterdam</v>
       </c>
     </row>
@@ -1303,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D8,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D8,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1321,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D9,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D9,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Funkenstiege 25, 48455 Bad Bentheim, Duitsland</v>
       </c>
     </row>
@@ -1339,7 +1330,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D10,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D10,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
@@ -1357,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D11,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D11,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1375,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D12,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D12,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1393,7 +1384,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D13,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D13,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Halve Maan, Beverwijk</v>
       </c>
     </row>
@@ -1411,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D14,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D14,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1429,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D15,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D15,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1447,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D16,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D16,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1465,7 +1456,7 @@
         <v>215</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D17,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D17,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bottrop, Duitsland</v>
       </c>
     </row>
@@ -1483,7 +1474,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D18,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D18,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
@@ -1501,7 +1492,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D19,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D19,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
@@ -1519,7 +1510,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D20,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D20,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Saxion Deventer Ophaalpunt</v>
       </c>
     </row>
@@ -1537,7 +1528,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D21,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D21,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dokweg, 3316 AD Dordrecht</v>
       </c>
     </row>
@@ -1555,7 +1546,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D22,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D22,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>An d. Westfalenburg 11-23, 44339 Dortmund, Duitsland</v>
       </c>
     </row>
@@ -1573,7 +1564,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D23,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D23,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1591,7 +1582,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D24,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D24,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47055 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1609,7 +1600,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D25,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D25,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1627,7 +1618,7 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D26,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D26,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sympherstraße, 47137 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -1645,7 +1636,7 @@
         <v>229</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D27,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D27,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1663,7 +1654,7 @@
         <v>229</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D28,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D28,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Coloradoweg 3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -1681,7 +1672,7 @@
         <v>51</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D29,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D29,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Eltville Ost, Duitsland</v>
       </c>
     </row>
@@ -1699,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D30,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D30,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
@@ -1717,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D31,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D31,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 9, 46446 Emmerich am Rhein, Duitsland</v>
       </c>
     </row>
@@ -1735,13 +1726,13 @@
         <v>57</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D32,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D32,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="6" t="b">
         <v>0</v>
@@ -1753,7 +1744,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D33,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D33,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moezelweg 100, 3198 LS Europoort Rotterdam</v>
       </c>
     </row>
@@ -1771,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D34,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D34,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Piri Reisweg, Sevenum</v>
       </c>
     </row>
@@ -1789,7 +1780,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D35,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D35,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationspark 14, 4461 HK Goes</v>
       </c>
     </row>
@@ -1807,7 +1798,7 @@
         <v>95</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D36,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D36,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
@@ -1825,7 +1816,7 @@
         <v>66</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D37,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D37,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Ruijgoordweg 100, 1047 HM Amsterdam</v>
       </c>
     </row>
@@ -1840,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E38" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D38,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D38,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" s="6" t="b">
         <v>0</v>
@@ -1858,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E39" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D39,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D39,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Dortmuiden 5152, Amsterdam</v>
       </c>
     </row>
@@ -1879,7 +1870,7 @@
         <v>48</v>
       </c>
       <c r="E40" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D40,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D40,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Aristotelesstraat, 3076 BD Rotterdam</v>
       </c>
     </row>
@@ -1897,7 +1888,7 @@
         <v>50</v>
       </c>
       <c r="E41" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D41,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D41,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bahnhofstraße 1, 41334 Nettetal, Duitsland</v>
       </c>
     </row>
@@ -1915,7 +1906,7 @@
         <v>52</v>
       </c>
       <c r="E42" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D42,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D42,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
@@ -1933,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="E43" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D43,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D43,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Develsingel, Zwijndrecht</v>
       </c>
     </row>
@@ -1951,7 +1942,7 @@
         <v>19</v>
       </c>
       <c r="E44" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D44,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D44,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
@@ -1969,7 +1960,7 @@
         <v>80</v>
       </c>
       <c r="E45" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D45,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D45,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Vondelingenweg 540, 3196 KK Vondelingenplaat</v>
       </c>
     </row>
@@ -1987,7 +1978,7 @@
         <v>56</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D46,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D46,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>47809 Krefeld, Duitsland</v>
       </c>
     </row>
@@ -2005,7 +1996,7 @@
         <v>58</v>
       </c>
       <c r="E47" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D47,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D47,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Oostelijke Parallelweg 4, Zevenbergschen Hoek</v>
       </c>
     </row>
@@ -2023,7 +2014,7 @@
         <v>84</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D48,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D48,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Oggersheim, Ludwigshafen, Duitsland</v>
       </c>
     </row>
@@ -2041,7 +2032,7 @@
         <v>61</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D49,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D49,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -2059,7 +2050,7 @@
         <v>61</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D50,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D50,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -2077,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D51,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D51,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Europaweg 910, 3199 LC Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -2095,7 +2086,7 @@
         <v>123</v>
       </c>
       <c r="E52" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D52,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D52,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -2113,7 +2104,7 @@
         <v>61</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D53,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D53,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -2131,7 +2122,7 @@
         <v>61</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D54,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D54,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -2149,7 +2140,7 @@
         <v>61</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D55,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D55,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magallanesstraat 51, 3199 LP Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -2167,7 +2158,7 @@
         <v>57</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D56,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D56,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Maasvlakteweg 951, 3199 LZ Maasvlakte Rotterdam</v>
       </c>
     </row>
@@ -2185,7 +2176,7 @@
         <v>102</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D57,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D57,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Magdeburg Hbf, Magdeburg, Duitsland</v>
       </c>
     </row>
@@ -2203,7 +2194,7 @@
         <v>104</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D58,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D58,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Streefwaalseweg 15, 3195 KN Pernis</v>
       </c>
     </row>
@@ -2221,7 +2212,7 @@
         <v>106</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D59,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D59,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
@@ -2239,7 +2230,7 @@
         <v>106</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D60,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D60,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moers, Bahnhof, Moers, Duitsland</v>
       </c>
     </row>
@@ -2257,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D61,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D61,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Salzstraße 6, 41460 Neuss, Duitsland</v>
       </c>
     </row>
@@ -2275,7 +2266,7 @@
         <v>138</v>
       </c>
       <c r="E62" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D62,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D62,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Moezelhavenweg 10, 1043 AM Amsterdam</v>
       </c>
     </row>
@@ -2293,7 +2284,7 @@
         <v>111</v>
       </c>
       <c r="E63" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D63,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D63,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Westhavenweg 54-13, 1042 AL Amsterdam</v>
       </c>
     </row>
@@ -2311,7 +2302,7 @@
         <v>73</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D64,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D64,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
@@ -2329,7 +2320,7 @@
         <v>73</v>
       </c>
       <c r="E65" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D65,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D65,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Stationsstraat, 7573 AT Oldenzaal</v>
       </c>
     </row>
@@ -2347,7 +2338,7 @@
         <v>79</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D66,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D66,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
@@ -2365,7 +2356,7 @@
         <v>115</v>
       </c>
       <c r="E67" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D67,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D67,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Opladen, Duitsland</v>
       </c>
     </row>
@@ -2383,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="E68" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D68,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D68,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Waalkade 33, 5347 KS Oss</v>
       </c>
     </row>
@@ -2401,7 +2392,7 @@
         <v>81</v>
       </c>
       <c r="E69" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D69,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D69,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Vondelingenweg 493, 3194 AJ Hoogvliet Rotterdam</v>
       </c>
     </row>
@@ -2419,7 +2410,7 @@
         <v>33</v>
       </c>
       <c r="E70" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D70,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D70,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Fuutlaan, 5642 CV Eindhoven</v>
       </c>
     </row>
@@ -2437,7 +2428,7 @@
         <v>89</v>
       </c>
       <c r="E71" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D71,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D71,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
@@ -2455,7 +2446,7 @@
         <v>120</v>
       </c>
       <c r="E72" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D72,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D72,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Rheine, Duitsland</v>
       </c>
     </row>
@@ -2473,7 +2464,7 @@
         <v>83</v>
       </c>
       <c r="E73" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D73,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D73,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Kruppstraße 12, 47229 Duisburg, Duitsland</v>
       </c>
     </row>
@@ -2491,7 +2482,7 @@
         <v>85</v>
       </c>
       <c r="E74" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D74,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D74,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Bosstraat 3, 4704 RL Roosendaal</v>
       </c>
     </row>
@@ -2509,13 +2500,13 @@
         <v>123</v>
       </c>
       <c r="E75" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D75,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D75,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>3199, Maasvlakte Rotterdam</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B76" s="6" t="b">
         <v>0</v>
@@ -2524,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E76" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D76,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D76,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>'s-Hertogenbosch</v>
       </c>
     </row>
@@ -2545,7 +2536,7 @@
         <v>124</v>
       </c>
       <c r="E77" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D77,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D77,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>4455 ST Nieuwdorp</v>
       </c>
     </row>
@@ -2563,13 +2554,13 @@
         <v>125</v>
       </c>
       <c r="E78" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D78,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D78,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Corsicaweg 343, 1044 AB Amsterdam</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B79" s="6" t="b">
         <v>0</v>
@@ -2578,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E79" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D79,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D79,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Den Hamweg 55, 3089 KK Rotterdam</v>
       </c>
     </row>
@@ -2599,13 +2590,13 @@
         <v>126</v>
       </c>
       <c r="E80" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D80,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D80,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Houtbeekweg 2, 3776 LZ Stroe</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="B81" s="6" t="b">
         <v>0</v>
@@ -2613,17 +2604,17 @@
       <c r="C81" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>233</v>
+      <c r="D81" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E81" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D81,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stuttgart, Germany</v>
+        <f>_xlfn.XLOOKUP(D81,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="B82" s="6" t="b">
         <v>0</v>
@@ -2635,13 +2626,13 @@
         <v>89</v>
       </c>
       <c r="E82" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D82,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D82,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="B83" s="6" t="b">
         <v>0</v>
@@ -2650,37 +2641,37 @@
         <v>0</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D83,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Nieuwe Atelierstraat 7, Berkel-Enschot</v>
+        <f>_xlfn.XLOOKUP(D83,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Uitgeest</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B84" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C84" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E84" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D84,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Uitgeest</v>
+        <f>_xlfn.XLOOKUP(D84,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B85" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="6" t="b">
         <v>1</v>
@@ -2689,31 +2680,31 @@
         <v>95</v>
       </c>
       <c r="E85" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D85,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D85,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B86" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D86,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Sloterbeekstraat 1, 5912 GS Venlo</v>
+        <f>_xlfn.XLOOKUP(D86,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Dammweg, 41747 Viersen, Duitsland</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="6" t="b">
         <v>0</v>
@@ -2722,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E87" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D87,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Dammweg, 41747 Viersen, Duitsland</v>
+        <f>_xlfn.XLOOKUP(D87,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B88" s="6" t="b">
         <v>0</v>
@@ -2743,13 +2734,13 @@
         <v>19</v>
       </c>
       <c r="E88" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D88,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D88,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Botlek Rotterdam</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" s="6" t="b">
         <v>0</v>
@@ -2757,17 +2748,17 @@
       <c r="C89" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>19</v>
+      <c r="D89" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E89" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D89,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Botlek Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D89,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B90" s="6" t="b">
         <v>0</v>
@@ -2775,65 +2766,47 @@
       <c r="C90" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>134</v>
+      <c r="D90" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E90" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D90,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Frankrijkweg 4, 4455 TR Nieuwdorp</v>
+        <f>_xlfn.XLOOKUP(D90,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E91" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D91,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Albert Plesmanweg 120, 3088 GD Rotterdam</v>
+        <f>_xlfn.XLOOKUP(D91,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E92" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D92,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
-        <v>Stationsstraat 14, 6901 BG Zevenaar</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B93" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C93" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="3" t="str">
-        <f>_xlfn.XLOOKUP(D93,'Station addresses'!$A$2:$A$1013,'Station addresses'!$B$2:$B$1013,"STATION NOT FOUND IN ADDRESS LIST")</f>
+        <f>_xlfn.XLOOKUP(D92,'Station addresses'!$A$2:$A$1012,'Station addresses'!$B$2:$B$1012,"STATION NOT FOUND IN ADDRESS LIST")</f>
         <v>Overweg, 7202 AB Zutphen</v>
       </c>
     </row>
@@ -2844,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D40E918-4E91-4C95-B234-1F9922AFEF3D}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2865,7 +2838,7 @@
         <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>216</v>
@@ -2997,10 +2970,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" t="s">
         <v>240</v>
-      </c>
-      <c r="B13" t="s">
-        <v>241</v>
       </c>
       <c r="C13" t="s">
         <v>226</v>
@@ -3287,7 +3260,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s">
         <v>170</v>
@@ -3640,10 +3613,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C69" t="s">
         <v>226</v>
@@ -3698,24 +3671,21 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>233</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>245</v>
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
-      </c>
-      <c r="D74" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
         <v>226</v>
@@ -3723,10 +3693,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s">
         <v>226</v>
@@ -3734,10 +3704,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
         <v>226</v>
@@ -3745,32 +3715,32 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s">
         <v>226</v>
@@ -3778,10 +3748,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
         <v>226</v>
@@ -3789,10 +3759,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C82" t="s">
         <v>226</v>
@@ -3800,10 +3770,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C83" t="s">
         <v>226</v>
@@ -3811,10 +3781,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
         <v>226</v>
@@ -3822,25 +3792,18 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C85" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" t="s">
-        <v>209</v>
-      </c>
-      <c r="C86" t="s">
-        <v>226</v>
-      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
@@ -3850,17 +3813,13 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
